--- a/tests/assets/outputs/functions/output_doc_layout/page_summary_with_verification.xlsx
+++ b/tests/assets/outputs/functions/output_doc_layout/page_summary_with_verification.xlsx
@@ -595,32 +595,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.307310342788696</v>
+        <v>2.577235221862793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002109289169311523</v>
+        <v>0.00550079345703125</v>
       </c>
       <c r="D2" t="n">
         <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>15265</v>
+        <v>15464</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>1356</v>
       </c>
       <c r="H2" t="n">
-        <v>4312</v>
+        <v>4370</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04481500000000001</v>
+        <v>0.045395</v>
       </c>
       <c r="J2" t="n">
-        <v>77.79570364952087</v>
+        <v>101.0705473423004</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007381200790405273</v>
+        <v>0.1183726787567139</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -640,11 +640,11 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1677</v>
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -666,11 +666,11 @@
         </is>
       </c>
       <c r="W2" t="n">
-        <v>1677</v>
+        <v>0</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>0.001099348068237305</v>
+        <v>0.02106332778930664</v>
       </c>
     </row>
     <row r="3">
@@ -710,32 +710,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.945088624954224</v>
+        <v>0.5225417613983154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009336471557617188</v>
+        <v>0.005013465881347656</v>
       </c>
       <c r="D3" t="n">
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>15265</v>
+        <v>15464</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>1356</v>
       </c>
       <c r="H3" t="n">
-        <v>4312</v>
+        <v>4370</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04481500000000001</v>
+        <v>0.045395</v>
       </c>
       <c r="J3" t="n">
-        <v>77.79570364952087</v>
+        <v>101.0705473423004</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006318807601928711</v>
+        <v>0.04558157920837402</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -755,11 +755,11 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -781,11 +781,11 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>0.002013206481933594</v>
+        <v>0.01446866989135742</v>
       </c>
     </row>
     <row r="4">
@@ -825,32 +825,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.09520411491394</v>
+        <v>0.6353096961975098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006937980651855469</v>
+        <v>0.004992485046386719</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>15265</v>
+        <v>15464</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1356</v>
       </c>
       <c r="H4" t="n">
-        <v>4312</v>
+        <v>4370</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04481500000000001</v>
+        <v>0.045395</v>
       </c>
       <c r="J4" t="n">
-        <v>77.79570364952087</v>
+        <v>101.0705473423004</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005103826522827148</v>
+        <v>0.03401780128479004</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -870,11 +870,11 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>3659</v>
+        <v>0</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -896,11 +896,11 @@
         </is>
       </c>
       <c r="W4" t="n">
-        <v>3659</v>
+        <v>0</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>0.002748250961303711</v>
+        <v>0.02279067039489746</v>
       </c>
     </row>
     <row r="5">
@@ -940,32 +940,32 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.202395915985107</v>
+        <v>0.4914276599884033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001032352447509766</v>
+        <v>0.01001596450805664</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>14885</v>
+        <v>14555</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>1356</v>
       </c>
       <c r="H5" t="n">
-        <v>4213</v>
+        <v>4100</v>
       </c>
       <c r="I5" t="n">
-        <v>0.043825</v>
+        <v>0.042695</v>
       </c>
       <c r="J5" t="n">
-        <v>92.36071610450745</v>
+        <v>63.96437120437622</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004732131958007812</v>
+        <v>0.05002546310424805</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -985,11 +985,11 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1501</v>
+        <v>0</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -1011,11 +1011,11 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>1501</v>
+        <v>0</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>0.001346826553344727</v>
+        <v>0.009502649307250977</v>
       </c>
     </row>
     <row r="6">
@@ -1055,32 +1055,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7684316635131836</v>
+        <v>0.4902873039245605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001464605331420898</v>
+        <v>0.005887746810913086</v>
       </c>
       <c r="D6" t="n">
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>10400</v>
+        <v>10424</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>1356</v>
       </c>
       <c r="H6" t="n">
-        <v>2968</v>
+        <v>2982</v>
       </c>
       <c r="I6" t="n">
-        <v>0.031375</v>
+        <v>0.031515</v>
       </c>
       <c r="J6" t="n">
-        <v>44.22425198554993</v>
+        <v>80.1480770111084</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003218173980712891</v>
+        <v>0.02902340888977051</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="W6" t="n">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>0.0008335113525390625</v>
+        <v>0.01132535934448242</v>
       </c>
     </row>
     <row r="7">
@@ -1170,32 +1170,32 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9025695323944092</v>
+        <v>0.5496816635131836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009584426879882812</v>
+        <v>0.005002021789550781</v>
       </c>
       <c r="D7" t="n">
         <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>6060</v>
+        <v>6240</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>1356</v>
       </c>
       <c r="H7" t="n">
-        <v>1821</v>
+        <v>1905</v>
       </c>
       <c r="I7" t="n">
-        <v>0.019905</v>
+        <v>0.020745</v>
       </c>
       <c r="J7" t="n">
-        <v>37.06404852867126</v>
+        <v>19.18224382400513</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003926992416381836</v>
+        <v>0.03399848937988281</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1215,11 +1215,11 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1241,11 +1241,11 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>0.001033782958984375</v>
+        <v>0.01501107215881348</v>
       </c>
     </row>
     <row r="8">
@@ -1285,32 +1285,32 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7557849884033203</v>
+        <v>0.5455629825592041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000904083251953125</v>
+        <v>0.007992982864379883</v>
       </c>
       <c r="D8" t="n">
         <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>5308</v>
+        <v>5833</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>1356</v>
       </c>
       <c r="H8" t="n">
-        <v>1673</v>
+        <v>1923</v>
       </c>
       <c r="I8" t="n">
-        <v>0.018425</v>
+        <v>0.020925</v>
       </c>
       <c r="J8" t="n">
-        <v>87.24086785316467</v>
+        <v>18.38912153244019</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003020048141479492</v>
+        <v>0.0446014404296875</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1330,11 +1330,11 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>0.001080513000488281</v>
+        <v>0.01151466369628906</v>
       </c>
     </row>
     <row r="9">
@@ -1400,32 +1400,32 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.417233228683472</v>
+        <v>0.5492587089538574</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00095367431640625</v>
+        <v>0.005999326705932617</v>
       </c>
       <c r="D9" t="n">
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>17816</v>
+        <v>14629</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>1356</v>
       </c>
       <c r="H9" t="n">
-        <v>8023</v>
+        <v>4674</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08192500000000001</v>
+        <v>0.04843500000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>68.18543601036072</v>
+        <v>98.68613219261169</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00367283821105957</v>
+        <v>0.03743815422058105</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1445,11 +1445,11 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1931</v>
+        <v>0</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1471,11 +1471,11 @@
         </is>
       </c>
       <c r="W9" t="n">
-        <v>1931</v>
+        <v>0</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>0.002889871597290039</v>
+        <v>0.01999878883361816</v>
       </c>
     </row>
     <row r="10">
@@ -1515,32 +1515,32 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.383749485015869</v>
+        <v>0.6504056453704834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008578300476074219</v>
+        <v>0.004998922348022461</v>
       </c>
       <c r="D10" t="n">
         <v>200</v>
       </c>
       <c r="E10" t="n">
-        <v>23454</v>
+        <v>23344</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>1356</v>
       </c>
       <c r="H10" t="n">
-        <v>7648</v>
+        <v>8055</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07817500000000001</v>
+        <v>0.08224500000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>173.8699657917023</v>
+        <v>101.3675532341003</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005123615264892578</v>
+        <v>0.04182076454162598</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>1894</v>
+        <v>0</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1586,11 +1586,11 @@
         </is>
       </c>
       <c r="W10" t="n">
-        <v>1894</v>
+        <v>0</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>0.002567052841186523</v>
+        <v>0.01719570159912109</v>
       </c>
     </row>
     <row r="11">
@@ -1630,32 +1630,32 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.295995235443115</v>
+        <v>0.6364104747772217</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008661746978759766</v>
+        <v>0.005990982055664062</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>36432</v>
+        <v>31064</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>1356</v>
       </c>
       <c r="H11" t="n">
-        <v>11937</v>
+        <v>10201</v>
       </c>
       <c r="I11" t="n">
-        <v>0.121065</v>
+        <v>0.103705</v>
       </c>
       <c r="J11" t="n">
-        <v>91.7252357006073</v>
+        <v>164.0278382301331</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004794120788574219</v>
+        <v>0.04099535942077637</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1675,11 +1675,11 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>1633</v>
+        <v>0</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1701,11 +1701,11 @@
         </is>
       </c>
       <c r="W11" t="n">
-        <v>1633</v>
+        <v>0</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>0.00274968147277832</v>
+        <v>0.02300381660461426</v>
       </c>
     </row>
     <row r="12">
@@ -1745,32 +1745,32 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.785798072814941</v>
+        <v>0.6311018466949463</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001110076904296875</v>
+        <v>0.007494211196899414</v>
       </c>
       <c r="D12" t="n">
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>31258</v>
+        <v>31431</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>1356</v>
       </c>
       <c r="H12" t="n">
-        <v>10239</v>
+        <v>10241</v>
       </c>
       <c r="I12" t="n">
-        <v>0.104085</v>
+        <v>0.104105</v>
       </c>
       <c r="J12" t="n">
-        <v>114.4803786277771</v>
+        <v>169.4507074356079</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004756927490234375</v>
+        <v>0.04533767700195312</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>2556</v>
+        <v>0</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1816,11 +1816,11 @@
         </is>
       </c>
       <c r="W12" t="n">
-        <v>2556</v>
+        <v>0</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>0.002580881118774414</v>
+        <v>0.01999855041503906</v>
       </c>
     </row>
     <row r="13">
@@ -1860,32 +1860,32 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.634083271026611</v>
+        <v>0.5355455875396729</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008299350738525391</v>
+        <v>0.005486011505126953</v>
       </c>
       <c r="D13" t="n">
         <v>200</v>
       </c>
       <c r="E13" t="n">
-        <v>22971</v>
+        <v>33715</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>1356</v>
       </c>
       <c r="H13" t="n">
-        <v>7587</v>
+        <v>10950</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07756500000000001</v>
+        <v>0.111195</v>
       </c>
       <c r="J13" t="n">
-        <v>59.79618382453918</v>
+        <v>166.7908666133881</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005066871643066406</v>
+        <v>0.03139710426330566</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1905,11 +1905,11 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>2429</v>
+        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>2429</v>
+        <v>0</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>0.001933813095092773</v>
+        <v>0.01992511749267578</v>
       </c>
     </row>
     <row r="14">
@@ -1975,32 +1975,32 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.449676990509033</v>
+        <v>0.5387437343597412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007083415985107422</v>
+        <v>0.004988431930541992</v>
       </c>
       <c r="D14" t="n">
         <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>33807</v>
+        <v>32205</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>1356</v>
       </c>
       <c r="H14" t="n">
-        <v>10865</v>
+        <v>10422</v>
       </c>
       <c r="I14" t="n">
-        <v>0.110345</v>
+        <v>0.105915</v>
       </c>
       <c r="J14" t="n">
-        <v>129.6362314224243</v>
+        <v>163.9078531265259</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003741979598999023</v>
+        <v>0.03900504112243652</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -2020,11 +2020,11 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -2046,11 +2046,11 @@
         </is>
       </c>
       <c r="W14" t="n">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>0.002153873443603516</v>
+        <v>0.01719546318054199</v>
       </c>
     </row>
     <row r="15">
@@ -2090,32 +2090,32 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.688414335250854</v>
+        <v>0.6304686069488525</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009620189666748047</v>
+        <v>0.005080223083496094</v>
       </c>
       <c r="D15" t="n">
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>33488</v>
+        <v>33511</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>1356</v>
       </c>
       <c r="H15" t="n">
-        <v>10806</v>
+        <v>10853</v>
       </c>
       <c r="I15" t="n">
-        <v>0.109755</v>
+        <v>0.110225</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9143252372742</v>
+        <v>150.5166404247284</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004472732543945312</v>
+        <v>0.04349184036254883</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2135,11 +2135,11 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -2161,11 +2161,11 @@
         </is>
       </c>
       <c r="W15" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>0.002367019653320312</v>
+        <v>0.02401351928710938</v>
       </c>
     </row>
     <row r="16">
@@ -2205,32 +2205,32 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.648674011230469</v>
+        <v>0.6025996208190918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001158714294433594</v>
+        <v>0.005989313125610352</v>
       </c>
       <c r="D16" t="n">
         <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>33048</v>
+        <v>26799</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>1356</v>
       </c>
       <c r="H16" t="n">
-        <v>10719</v>
+        <v>8493</v>
       </c>
       <c r="I16" t="n">
-        <v>0.108885</v>
+        <v>0.08662500000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>161.9930634498596</v>
+        <v>67.43646502494812</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003315448760986328</v>
+        <v>0.04860091209411621</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2250,11 +2250,11 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>2430</v>
+        <v>0</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -2276,11 +2276,11 @@
         </is>
       </c>
       <c r="W16" t="n">
-        <v>2430</v>
+        <v>0</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>0.002631664276123047</v>
+        <v>0.01559090614318848</v>
       </c>
     </row>
     <row r="17">
@@ -2320,32 +2320,32 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.428062200546265</v>
+        <v>0.5178143978118896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001028299331665039</v>
+        <v>0.005386829376220703</v>
       </c>
       <c r="D17" t="n">
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>33056</v>
+        <v>32755</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>1356</v>
       </c>
       <c r="H17" t="n">
-        <v>11346</v>
+        <v>10687</v>
       </c>
       <c r="I17" t="n">
-        <v>0.115155</v>
+        <v>0.108565</v>
       </c>
       <c r="J17" t="n">
-        <v>106.800776720047</v>
+        <v>124.5919690132141</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003819942474365234</v>
+        <v>0.03409600257873535</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2365,11 +2365,11 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1969</v>
+        <v>0</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
         </is>
       </c>
       <c r="W17" t="n">
-        <v>1969</v>
+        <v>0</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>0.002118110656738281</v>
+        <v>0.01816129684448242</v>
       </c>
     </row>
     <row r="18">
@@ -2435,32 +2435,32 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.632705688476562</v>
+        <v>0.6439704895019531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001186847686767578</v>
+        <v>0.006091594696044922</v>
       </c>
       <c r="D18" t="n">
         <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>31267</v>
+        <v>31191</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>1356</v>
       </c>
       <c r="H18" t="n">
-        <v>10094</v>
+        <v>10026</v>
       </c>
       <c r="I18" t="n">
-        <v>0.102635</v>
+        <v>0.101955</v>
       </c>
       <c r="J18" t="n">
-        <v>127.0729374885559</v>
+        <v>133.1929919719696</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00403141975402832</v>
+        <v>0.03331351280212402</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2480,11 +2480,11 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>2417</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2506,11 +2506,11 @@
         </is>
       </c>
       <c r="W18" t="n">
-        <v>2417</v>
+        <v>0</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>0.002402544021606445</v>
+        <v>0.01888847351074219</v>
       </c>
     </row>
     <row r="19">
@@ -2550,32 +2550,32 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.686081647872925</v>
+        <v>0.6736292839050293</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001189231872558594</v>
+        <v>0.006008625030517578</v>
       </c>
       <c r="D19" t="n">
         <v>200</v>
       </c>
       <c r="E19" t="n">
-        <v>31059</v>
+        <v>34383</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>1356</v>
       </c>
       <c r="H19" t="n">
-        <v>10044</v>
+        <v>11003</v>
       </c>
       <c r="I19" t="n">
-        <v>0.102135</v>
+        <v>0.111725</v>
       </c>
       <c r="J19" t="n">
-        <v>141.7610094547272</v>
+        <v>134.1523108482361</v>
       </c>
       <c r="K19" t="n">
-        <v>0.004863500595092773</v>
+        <v>0.04645085334777832</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2595,11 +2595,11 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>2474</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2621,11 +2621,11 @@
         </is>
       </c>
       <c r="W19" t="n">
-        <v>2474</v>
+        <v>0</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>0.002526044845581055</v>
+        <v>0.02052879333496094</v>
       </c>
     </row>
     <row r="20">
@@ -2665,32 +2665,32 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.368090391159058</v>
+        <v>0.5958292484283447</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001399517059326172</v>
+        <v>0.005988121032714844</v>
       </c>
       <c r="D20" t="n">
         <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>33381</v>
+        <v>17854</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>1356</v>
       </c>
       <c r="H20" t="n">
-        <v>10779</v>
+        <v>5955</v>
       </c>
       <c r="I20" t="n">
-        <v>0.109485</v>
+        <v>0.06124500000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>173.6219267845154</v>
+        <v>107.464245557785</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004805803298950195</v>
+        <v>0.04000020027160645</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2710,11 +2710,11 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>1704</v>
+        <v>0</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2736,11 +2736,11 @@
         </is>
       </c>
       <c r="W20" t="n">
-        <v>1704</v>
+        <v>0</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>0.002065896987915039</v>
+        <v>0.0115053653717041</v>
       </c>
     </row>
     <row r="21">
@@ -2780,32 +2780,32 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7994816303253174</v>
+        <v>0.4881336688995361</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006873607635498047</v>
+        <v>0.004932641983032227</v>
       </c>
       <c r="D21" t="n">
         <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>19906</v>
+        <v>21942</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>1356</v>
       </c>
       <c r="H21" t="n">
-        <v>6426</v>
+        <v>7081</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06595500000000001</v>
+        <v>0.07250500000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>82.22407793998718</v>
+        <v>81.84063744544983</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003214120864868164</v>
+        <v>0.03260397911071777</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2851,11 +2851,11 @@
         </is>
       </c>
       <c r="W21" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>0.0005233287811279297</v>
+        <v>0.008510589599609375</v>
       </c>
     </row>
     <row r="22">
@@ -2895,32 +2895,32 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.452255487442017</v>
+        <v>0.5420668125152588</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001010417938232422</v>
+        <v>0.00655674934387207</v>
       </c>
       <c r="D22" t="n">
         <v>200</v>
       </c>
       <c r="E22" t="n">
-        <v>22132</v>
+        <v>23313</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>1356</v>
       </c>
       <c r="H22" t="n">
-        <v>7203</v>
+        <v>7627</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07372500000000001</v>
+        <v>0.07796500000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>118.4719612598419</v>
+        <v>175.4004766941071</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003931045532226562</v>
+        <v>0.03124189376831055</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2940,11 +2940,11 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>1899</v>
+        <v>0</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2966,11 +2966,11 @@
         </is>
       </c>
       <c r="W22" t="n">
-        <v>1899</v>
+        <v>0</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>0.002137422561645508</v>
+        <v>0.01698207855224609</v>
       </c>
     </row>
     <row r="23">
@@ -3010,32 +3010,32 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.491399049758911</v>
+        <v>0.5691466331481934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001302719116210938</v>
+        <v>0.007189512252807617</v>
       </c>
       <c r="D23" t="n">
         <v>200</v>
       </c>
       <c r="E23" t="n">
-        <v>22270</v>
+        <v>22256</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>1356</v>
       </c>
       <c r="H23" t="n">
-        <v>7302</v>
+        <v>7314</v>
       </c>
       <c r="I23" t="n">
-        <v>0.074715</v>
+        <v>0.07483500000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>154.8264009952545</v>
+        <v>169.8696677684784</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006849050521850586</v>
+        <v>0.04761576652526855</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -3055,11 +3055,11 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -3081,11 +3081,11 @@
         </is>
       </c>
       <c r="W23" t="n">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>0.002305030822753906</v>
+        <v>0.01544022560119629</v>
       </c>
     </row>
     <row r="24">
@@ -3125,32 +3125,32 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7956576347351074</v>
+        <v>0.4997520446777344</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0009825229644775391</v>
+        <v>0.003991127014160156</v>
       </c>
       <c r="D24" t="n">
         <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>22936</v>
+        <v>22101</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>1356</v>
       </c>
       <c r="H24" t="n">
-        <v>7552</v>
+        <v>7278</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07721500000000001</v>
+        <v>0.07447500000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>165.1918973922729</v>
+        <v>58.60456943511963</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003184795379638672</v>
+        <v>0.02932047843933105</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>success_ocr</t>
+          <t>empty_ocr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -3196,11 +3196,11 @@
         </is>
       </c>
       <c r="W24" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>empty_result</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>0.0006968975067138672</v>
+        <v>0.006348848342895508</v>
       </c>
     </row>
   </sheetData>

--- a/tests/assets/outputs/functions/output_doc_layout/page_summary_with_verification.xlsx
+++ b/tests/assets/outputs/functions/output_doc_layout/page_summary_with_verification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,32 +595,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.494915723800659</v>
+        <v>2.652839660644531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01166987419128418</v>
+        <v>0.005988359451293945</v>
       </c>
       <c r="D2" t="n">
         <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>5767</v>
+        <v>6985</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>840</v>
+        <v>1356</v>
       </c>
       <c r="H2" t="n">
-        <v>1593</v>
+        <v>1933</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01698</v>
+        <v>0.021025</v>
       </c>
       <c r="J2" t="n">
-        <v>60.93998646736145</v>
+        <v>26.65644288063049</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1096601486206055</v>
+        <v>0.06185793876647949</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2911</v>
+        <v>463</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2898</v>
+        <v>463</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2911</v>
+        <v>463</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>2911</v>
+        <v>463</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -702,7 +702,1272 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>0.03014755249023438</v>
+        <v>0.02572822570800781</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7224795818328857</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.008114814758300781</v>
+      </c>
+      <c r="D3" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6985</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1933</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.021025</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26.65644288063049</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.03600168228149414</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>683</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>624</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>683</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>683</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.01701641082763672</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9772424697875977</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02200078964233398</v>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6985</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1933</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.021025</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26.65644288063049</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06244301795959473</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>2409</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>2408</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2409</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>2409</v>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.01313138008117676</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.012099742889404</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.007665872573852539</v>
+      </c>
+      <c r="D5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9447</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2635</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.028045</v>
+      </c>
+      <c r="J5" t="n">
+        <v>70.71355962753296</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.04691624641418457</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1723</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>1726</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1723</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>1723</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0116572380065918</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.517704486846924</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01587796211242676</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12236</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3305</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03474500000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>36.5631422996521</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.06822562217712402</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1712</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1715</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1712</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>1712</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01490139961242676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8639936447143555</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.006085634231567383</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11042</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2980</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.031495</v>
+      </c>
+      <c r="J7" t="n">
+        <v>42.43197894096375</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04002094268798828</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1805</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1803</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1805</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>1805</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.01700615882873535</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8979744911193848</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.005999326705932617</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10870</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2845</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.030145</v>
+      </c>
+      <c r="J8" t="n">
+        <v>125.7148065567017</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.05451560020446777</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>2247</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>2247</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2247</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>2247</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.01799297332763672</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9125440120697021</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006119966506958008</v>
+      </c>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12574</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3389</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03558500000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>104.7092390060425</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.04575276374816895</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>2855</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>2854</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2855</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>2855</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.02611160278320312</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8916478157043457</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.009752273559570312</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11942</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2927</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.030965</v>
+      </c>
+      <c r="J10" t="n">
+        <v>75.59750580787659</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.04689526557922363</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>2506</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>2506</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2506</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>2506</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.01790118217468262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.114639043807983</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005977153778076172</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12006</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3078</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.032475</v>
+      </c>
+      <c r="J11" t="n">
+        <v>29.79944276809692</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.04164719581604004</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>2347</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>2347</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2347</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>2347</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.01511502265930176</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.04257869720459</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.007727861404418945</v>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11440</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3073</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.032425</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29.87044978141785</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.06891322135925293</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>1030</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>1030</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1030</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>1030</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.05410981178283691</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9553909301757812</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.008993864059448242</v>
+      </c>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15724</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1356</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5626</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05795500000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>50.7177894115448</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05013322830200195</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>success_fitz</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>success_pypdf2</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>2945</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>empty_ocr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>2945</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2945</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>empty_result</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>direct_pypdf2</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>success_sufficient</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>2945</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>fitz</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>fuzzy_attempted</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.03311586380004883</v>
       </c>
     </row>
   </sheetData>
